--- a/汽车在线租赁系统-接口文档.xlsx
+++ b/汽车在线租赁系统-接口文档.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11829\Desktop\CarRentalPlatform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tang/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5198E338-D9AB-4AF6-AAFF-EBB6C0E30A69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07AE947-994A-034E-B57A-BE78E21BF657}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{B1BDE0E3-F8A3-E649-9CD5-2935F57014BC}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="24720" windowHeight="14180" xr2:uid="{B1BDE0E3-F8A3-E649-9CD5-2935F57014BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>用户模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,7 +152,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>39.108.253.80:1125</t>
+    <t>/user/changePassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surePassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码，通过session获取手机号码，并与传入的email，进行查询与oldPassword进行比对，比对成功后，新密码两次新密码比对，成功后，修改密码为newPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,38 +309,50 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,66 +671,66 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="17.17578125" customWidth="1"/>
-    <col min="3" max="3" width="29.3515625" customWidth="1"/>
-    <col min="4" max="4" width="27.8203125" customWidth="1"/>
-    <col min="5" max="5" width="33.64453125" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" ht="16" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="21">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="15" t="s">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -698,26 +739,26 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="21">
+      <c r="A6" s="11"/>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
@@ -727,143 +768,159 @@
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="16" t="s">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="21">
+      <c r="A7" s="11"/>
+      <c r="B7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="10"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="21">
+      <c r="A8" s="11"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="10"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="21">
+      <c r="A9" s="11"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="10"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="21">
+      <c r="A10" s="11"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="21">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="8" t="s">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="21">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="8" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="21">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="1" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
+      <c r="D14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="21" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="21">
+      <c r="A18" s="11"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="2"/>
@@ -872,7 +929,7 @@
       <c r="G18" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G5"/>
@@ -886,11 +943,14 @@
     <mergeCell ref="F7:G10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:G13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:G16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>